--- a/マスタ設定_LYCA.xlsx
+++ b/マスタ設定_LYCA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endou-katsuyoshi\Desktop\SBAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71288842\Desktop\SB-SVN\documents\313-適用_マスタ・パラメータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B184064-6CC1-42ED-914F-B4C67A394695}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC71DC6-AA8E-4842-B485-1ED33940F342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D102B86-6CB1-48EE-BD68-8E15C6921B0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D102B86-6CB1-48EE-BD68-8E15C6921B0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PULLDOWN_MASTER" sheetId="1" r:id="rId1"/>
+    <sheet name="CCP_LABEL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="274">
   <si>
     <t>PULLDOWN_MASTER</t>
     <phoneticPr fontId="2"/>
@@ -489,9 +490,6 @@
     <t>てきぱきとスピーディーに進める仕事</t>
   </si>
   <si>
-    <t>予定がいの事柄への対応が多い仕事</t>
-  </si>
-  <si>
     <t>自分で考えながら自律的に進める仕事</t>
   </si>
   <si>
@@ -729,7 +727,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cspd-jksk_prog_ans02</t>
+    <t>cspd-jksk_glo_ryu_exp_chiiki</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -737,7 +735,361 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cspd-jksk_glo_ryu_exp_chiiki</t>
+    <t>00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cspd-jksk_glo_ryu_exp_naiyo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小学校～中学校（日本以外）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高校（日本以外）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大学（日本以外）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大学院（日本以外）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターナショナルスクール（日本）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cspd_jksk_skill_prog_keiken</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用なし</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用あり</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCP_LABEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>LABEL_TEXT</t>
+  </si>
+  <si>
+    <t>LABEL_TEXT_L2</t>
+  </si>
+  <si>
+    <t>LABEL_TEXT_L3</t>
+  </si>
+  <si>
+    <t>YONSHA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHEDIT_NAV_BACK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHEDIT_SELECT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_TERMS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_BTN_FILTER_ON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_BTN_FILTER_OFF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞込み条件</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞込み解除</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_TERMS_NOTES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_MSG_NOT_SEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資格を選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　※検索条件枠のところに全角で検索してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_TITLE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資格登録</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHSIK_FILTER_PLC_FLDR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Filter...</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞込み</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHGYM_SRCH_TH_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHGYM_SRCH_TH_2</t>
+  </si>
+  <si>
+    <t>LSHGYM_SRCH_TH_3</t>
+  </si>
+  <si>
+    <t>職種</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職種2</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHGYM_RSLT_TH_1</t>
+  </si>
+  <si>
+    <t>LSHGYM_RSLT_TH_2</t>
+  </si>
+  <si>
+    <t>LSHGYM_RSLT_TH_3</t>
+  </si>
+  <si>
+    <t>LSHGYM_RSLT_TH_4</t>
+  </si>
+  <si>
+    <t>業務分類</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHGYM_MSG_NOT_SEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LSHGYM_TITLE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当する業務分類を選択してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定外の事柄への対応が多い仕事</t>
+    <rPh sb="0" eb="3">
+      <t>ヨテイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定外の事柄への対応が多い仕事</t>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある（3年以上）</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある（1年以上3年未満）</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ネンミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある（1年未満）</t>
+    <rPh sb="4" eb="7">
+      <t>ネンミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1113,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6225257-23AC-4996-8CA0-AE8F109AC884}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2606,17 +2958,17 @@
         <v>130</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_shigoto_ans05', '予定がいの事柄への対応が多い仕事', '予定がいの事柄への対応が多い仕事', '08' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_shigoto_ans05', '予定外の事柄への対応が多い仕事', '予定外の事柄への対応が多い仕事', '08' );</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
@@ -2624,10 +2976,10 @@
         <v>130</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>67</v>
@@ -2642,10 +2994,10 @@
         <v>130</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>68</v>
@@ -2660,10 +3012,10 @@
         <v>130</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>69</v>
@@ -2678,10 +3030,10 @@
         <v>130</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>70</v>
@@ -2696,10 +3048,10 @@
         <v>130</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>71</v>
@@ -2714,10 +3066,10 @@
         <v>130</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>72</v>
@@ -2729,7 +3081,7 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>58</v>
@@ -2741,7 +3093,7 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>131</v>
@@ -2759,7 +3111,7 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>132</v>
@@ -2777,7 +3129,7 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>133</v>
@@ -2795,7 +3147,7 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>134</v>
@@ -2813,7 +3165,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>135</v>
@@ -2831,7 +3183,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>136</v>
@@ -2849,7 +3201,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>137</v>
@@ -2867,31 +3219,31 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G101" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_shigoto_ans06', '予定がいの事柄への対応が多い仕事', '予定がいの事柄への対応が多い仕事', '08' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_shigoto_ans06', '予定外の事柄への対応が多い仕事', '予定外の事柄への対応が多い仕事', '08' );</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>67</v>
@@ -2903,13 +3255,13 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>68</v>
@@ -2921,13 +3273,13 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>69</v>
@@ -2939,13 +3291,13 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>70</v>
@@ -2957,13 +3309,13 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>71</v>
@@ -2975,13 +3327,13 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>72</v>
@@ -2993,7 +3345,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>58</v>
@@ -3005,13 +3357,13 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>59</v>
@@ -3023,13 +3375,13 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>60</v>
@@ -3041,13 +3393,13 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>61</v>
@@ -3059,13 +3411,13 @@
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>62</v>
@@ -3077,7 +3429,7 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>58</v>
@@ -3089,13 +3441,13 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>59</v>
@@ -3107,13 +3459,13 @@
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>60</v>
@@ -3125,13 +3477,13 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>61</v>
@@ -3143,13 +3495,13 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>62</v>
@@ -3161,7 +3513,7 @@
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>58</v>
@@ -3173,13 +3525,13 @@
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>59</v>
@@ -3191,13 +3543,13 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>60</v>
@@ -3209,13 +3561,13 @@
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>61</v>
@@ -3227,13 +3579,13 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>62</v>
@@ -3245,13 +3597,13 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>63</v>
@@ -3263,13 +3615,13 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>64</v>
@@ -3281,13 +3633,13 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>65</v>
@@ -3299,13 +3651,13 @@
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>66</v>
@@ -3317,13 +3669,13 @@
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>67</v>
@@ -3335,7 +3687,7 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>58</v>
@@ -3347,13 +3699,13 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>59</v>
@@ -3365,13 +3717,13 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>60</v>
@@ -3383,13 +3735,13 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>61</v>
@@ -3401,25 +3753,25 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G132" s="2" t="str">
-        <f t="shared" ref="G132:G194" si="2">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B132 &amp; "', '" &amp; C132 &amp; "', '" &amp; D132 &amp; "', '" &amp; E132 &amp; "' );"</f>
+        <f t="shared" ref="G132:G198" si="2">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B132 &amp; "', '" &amp; C132 &amp; "', '" &amp; D132 &amp; "', '" &amp; E132 &amp; "' );"</f>
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_lang_ans01', '思わない', '思わない', '04' );</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>58</v>
@@ -3431,13 +3783,13 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>59</v>
@@ -3449,13 +3801,13 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>115</v>
@@ -3467,7 +3819,7 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B136" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>58</v>
@@ -3479,13 +3831,13 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>59</v>
@@ -3497,13 +3849,13 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>115</v>
@@ -3515,7 +3867,7 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B139" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>58</v>
@@ -3527,13 +3879,13 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>59</v>
@@ -3545,13 +3897,13 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B141" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>115</v>
@@ -3563,7 +3915,7 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B142" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>58</v>
@@ -3575,13 +3927,13 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>59</v>
@@ -3593,13 +3945,13 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>115</v>
@@ -3611,13 +3963,13 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>116</v>
@@ -3629,7 +3981,7 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>58</v>
@@ -3641,13 +3993,13 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>59</v>
@@ -3659,13 +4011,13 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>115</v>
@@ -3677,7 +4029,7 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>58</v>
@@ -3689,13 +4041,13 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>59</v>
@@ -3707,13 +4059,13 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>115</v>
@@ -3725,13 +4077,13 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B152" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>116</v>
@@ -3743,7 +4095,7 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>58</v>
@@ -3755,583 +4107,589 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="G154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ある', 'ある', '01' );</v>
+        <f t="shared" ref="G154:G156" si="3">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B154 &amp; "', '" &amp; C154 &amp; "', '" &amp; D154 &amp; "', '" &amp; E154 &amp; "' );"</f>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ある（3年以上）', 'ある（3年以上）', '01' );</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ない', 'ない', '02' );</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ある（1年以上3年未満）', 'ある（1年以上3年未満）', '02' );</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '', '', '00' );</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ある（1年未満）', 'ある（1年未満）', '03' );</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="G157" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '中国語', '中国語', '01' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans01', 'ない', 'ない', '04' );</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G158" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '韓国語', '韓国語', '02' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '', '', '00' );</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'ベトナム語', 'ベトナム語', '03' );</v>
+        <f t="shared" ref="G159" si="4">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B159 &amp; "', '" &amp; C159 &amp; "', '" &amp; D159 &amp; "', '" &amp; E159 &amp; "' );"</f>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '英語', '英語', '01' );</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G160" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'インドネシア語', 'インドネシア語', '04' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '中国語', '中国語', '02' );</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G161" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'タイ語', 'タイ語', '05' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', '韓国語', '韓国語', '03' );</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G162" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'フランス語', 'フランス語', '06' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'ベトナム語', 'ベトナム語', '04' );</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G163" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'ドイツ語', 'ドイツ語', '07' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'インドネシア語', 'インドネシア語', '05' );</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G164" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'スペイン語', 'スペイン語', '08' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'タイ語', 'タイ語', '06' );</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G165" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'その他', 'その他', '09' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'フランス語', 'フランス語', '07' );</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G166" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '', '', '00' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'ドイツ語', 'ドイツ語', '08' );</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G167" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '常に利用している', '常に利用している', '01' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'スペイン語', 'スペイン語', '09' );</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', 'たまに利用している', 'たまに利用している', '02' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_busi_language', 'その他', 'その他', '10' );</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B169" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G169" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', 'ほとんど利用していない', 'ほとんど利用していない', '03' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '', '', '00' );</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D170" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '現在の部署（本部）では利用する業務がない', '現在の部署（本部）では利用する業務がない', '04' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '常に利用している', '常に利用している', '01' );</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B171" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G171" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', '', '', '00' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', 'たまに利用している', 'たまに利用している', '02' );</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B172" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G172" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', 'ある', 'ある', '01' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', 'ほとんど利用していない', 'ほとんど利用していない', '03' );</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G173" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', 'ない', 'ない', '02' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_lang_ans02', '現在の部署（本部）では利用する業務がない', '現在の部署（本部）では利用する業務がない', '04' );</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G174" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '', '', '00' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', '', '', '00' );</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B175" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G175" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '北アメリカ', '北アメリカ', '01' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', 'ある', 'ある', '01' );</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="G176" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '南アメリカ', '南アメリカ', '02' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_ans01', 'ない', 'ない', '02' );</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G177" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'ヨーロッパ', 'ヨーロッパ', '03' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '', '', '00' );</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D178" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G178" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'アジア', 'アジア', '04' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '北アメリカ', '北アメリカ', '01' );</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'アフリカ', 'アフリカ', '05' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', '南アメリカ', '南アメリカ', '02' );</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G180" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'オセアニア', 'オセアニア', '06' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'ヨーロッパ', 'ヨーロッパ', '03' );</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G181" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '', '', '00' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'アジア', 'アジア', '04' );</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G182" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '海外赴任', '海外赴任', '01' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'アフリカ', 'アフリカ', '05' );</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B183" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G183" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '日本以外の国にある企業で勤務', '日本以外の国にある企業で勤務', '02' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_chiiki', 'オセアニア', 'オセアニア', '06' );</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="G184" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '長期海外出張（3ヶ月以上）', '長期海外出張（3ヶ月以上）', '03' );</v>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '', '', '00' );</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B185" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G185" s="2" t="str">
-        <f t="shared" ref="G185:G187" si="3">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B185 &amp; "', '" &amp; C185 &amp; "', '" &amp; D185 &amp; "', '" &amp; E185 &amp; "' );"</f>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', '', '', '00' );</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '海外赴任', '海外赴任', '01' );</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B186" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G186" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ある', 'ある', '01' );</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '日本以外の国にある企業で勤務', '日本以外の国にある企業で勤務', '02' );</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="G187" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ない', 'ない', '02' );</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_busi_exp_shubetsu', '長期海外出張（3ヶ月以上）', '長期海外出張（3ヶ月以上）', '03' );</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B188" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>58</v>
@@ -4343,13 +4701,13 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B189" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>59</v>
@@ -4361,13 +4719,13 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B190" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>60</v>
@@ -4379,13 +4737,13 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B191" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>61</v>
@@ -4397,13 +4755,13 @@
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>62</v>
@@ -4415,13 +4773,13 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>63</v>
@@ -4433,13 +4791,13 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>64</v>
@@ -4447,10 +4805,535 @@
       <c r="G194" s="2" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_chiiki', 'オセアニア', 'オセアニア', '06' );</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B195" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G195" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', '', '', '00' );</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B196" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G196" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ある', 'ある', '01' );</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B197" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G197" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ない', 'ない', '02' );</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G198" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '', '', '00' );</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B199" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G199" s="2" t="str">
+        <f t="shared" ref="G199:G206" si="5">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B199 &amp; "', '" &amp; C199 &amp; "', '" &amp; D199 &amp; "', '" &amp; E199 &amp; "' );"</f>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '小学校～中学校（日本以外）', '小学校～中学校（日本以外）', '01' );</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B200" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G200" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '高校（日本以外）', '高校（日本以外）', '02' );</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B201" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G201" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '大学（日本以外）', '大学（日本以外）', '03' );</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G202" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '大学院（日本以外）', '大学院（日本以外）', '04' );</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G203" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', 'インターナショナルスクール（日本）', 'インターナショナルスクール（日本）', '05' );</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G204" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', 'その他', 'その他', '06' );</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B205" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G205" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd_jksk_skill_prog_keiken', '利用なし', '利用なし', '00' );</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B206" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G206" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd_jksk_skill_prog_keiken', '利用あり', '利用あり', '01' );</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BFF61F-9439-40C0-B046-ED326EC9CE29}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>"INSERT INTO CCP_LABEL( ""PARTY"", ""LABEL_ID"", ""LABEL_TEXT"" ) VALUES( '" &amp; B3 &amp; "', '" &amp; C3 &amp; "', '" &amp; D3 &amp; "' );"</f>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHEDIT_NAV_BACK', '戻る' );</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I20" si="0">"INSERT INTO CCP_LABEL( ""PARTY"", ""LABEL_ID"", ""LABEL_TEXT"" ) VALUES( '" &amp; B4 &amp; "', '" &amp; C4 &amp; "', '" &amp; D4 &amp; "' );"</f>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHEDIT_SELECT', '選択' );</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_TERMS', '絞込み条件' );</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_BTN_FILTER_ON', '絞込み' );</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_BTN_FILTER_OFF', '絞込み解除' );</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_TERMS_NOTES', '　※検索条件枠のところに全角で検索してください' );</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_MSG_NOT_SEL', '資格を選択してください。' );</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_TITLE', '資格登録' );</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHSIK_FILTER_PLC_FLDR', 'Filter...' );</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_SRCH_TH_1', '職種' );</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_SRCH_TH_2', '職種2' );</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_SRCH_TH_3', '分類' );</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_RSLT_TH_1', '職種' );</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_RSLT_TH_2', '職種2' );</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_RSLT_TH_3', '業務分類' );</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_RSLT_TH_4', '説明' );</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_MSG_NOT_SEL', '該当する業務分類を選択してください。' );</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCP_LABEL( "PARTY", "LABEL_ID", "LABEL_TEXT" ) VALUES( 'YONSHA', 'LSHGYM_TITLE', '業務分類' );</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/マスタ設定_LYCA.xlsx
+++ b/マスタ設定_LYCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71288842\Desktop\SB-SVN\documents\313-適用_マスタ・パラメータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endou-katsuyoshi\Desktop\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC71DC6-AA8E-4842-B485-1ED33940F342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2AF6F-232C-442B-8DA2-F7791D7B3596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D102B86-6CB1-48EE-BD68-8E15C6921B0F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D102B86-6CB1-48EE-BD68-8E15C6921B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="PULLDOWN_MASTER" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="293">
   <si>
     <t>PULLDOWN_MASTER</t>
     <phoneticPr fontId="2"/>
@@ -1090,6 +1090,73 @@
     <rPh sb="0" eb="2">
       <t>エイゴ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cspd-jksk_car_now_han_ans01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売職のスペシャリストとしてクルーで働きたい</t>
+  </si>
+  <si>
+    <t>キャリアアップを目指したい（AM、SSV、店長など）</t>
+  </si>
+  <si>
+    <t>現在の業務のままステップアップしたい</t>
+  </si>
+  <si>
+    <t>その他のキャリアを目指したい</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cspd-jksk_bos_now_han_ans01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直ちにチャレンジさせたい</t>
+  </si>
+  <si>
+    <t>半年～1年以内にチャレンジさせたい</t>
+  </si>
+  <si>
+    <t>1～2年以内にチャレンジさせたい</t>
+  </si>
+  <si>
+    <t>時期を問わず機会があればチャレンジさせたい</t>
+  </si>
+  <si>
+    <t>現職でキャリアアップさせたい（現在の業務を続けさせたい）</t>
+  </si>
+  <si>
+    <t>05</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1465,17 +1532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6225257-23AC-4996-8CA0-AE8F109AC884}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="39.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="2"/>
@@ -4771,7 +4838,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_chiiki', 'アジア', 'アジア', '04' );</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
         <v>203</v>
       </c>
@@ -4789,7 +4856,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_chiiki', 'アフリカ', 'アフリカ', '05' );</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
         <v>203</v>
       </c>
@@ -4807,7 +4874,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_chiiki', 'オセアニア', 'オセアニア', '06' );</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
         <v>204</v>
       </c>
@@ -4819,7 +4886,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', '', '', '00' );</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B196" s="1" t="s">
         <v>204</v>
       </c>
@@ -4837,7 +4904,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ある', 'ある', '01' );</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B197" s="1" t="s">
         <v>204</v>
       </c>
@@ -4855,7 +4922,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_ans01', 'ない', 'ない', '02' );</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B198" s="1" t="s">
         <v>208</v>
       </c>
@@ -4867,7 +4934,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '', '', '00' );</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
         <v>208</v>
       </c>
@@ -4881,11 +4948,11 @@
         <v>216</v>
       </c>
       <c r="G199" s="2" t="str">
-        <f t="shared" ref="G199:G206" si="5">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B199 &amp; "', '" &amp; C199 &amp; "', '" &amp; D199 &amp; "', '" &amp; E199 &amp; "' );"</f>
+        <f t="shared" ref="G199:G217" si="5">"INSERT INTO PULLDOWN_MASTER VALUES ( '" &amp; B199 &amp; "', '" &amp; C199 &amp; "', '" &amp; D199 &amp; "', '" &amp; E199 &amp; "' );"</f>
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '小学校～中学校（日本以外）', '小学校～中学校（日本以外）', '01' );</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B200" s="1" t="s">
         <v>208</v>
       </c>
@@ -4903,7 +4970,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '高校（日本以外）', '高校（日本以外）', '02' );</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B201" s="1" t="s">
         <v>208</v>
       </c>
@@ -4921,7 +4988,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '大学（日本以外）', '大学（日本以外）', '03' );</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B202" s="1" t="s">
         <v>208</v>
       </c>
@@ -4939,7 +5006,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', '大学院（日本以外）', '大学院（日本以外）', '04' );</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B203" s="1" t="s">
         <v>208</v>
       </c>
@@ -4957,7 +5024,7 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', 'インターナショナルスクール（日本）', 'インターナショナルスクール（日本）', '05' );</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B204" s="1" t="s">
         <v>208</v>
       </c>
@@ -4975,7 +5042,10 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_glo_ryu_exp_naiyo', 'その他', 'その他', '06' );</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>222</v>
       </c>
@@ -4993,7 +5063,10 @@
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd_jksk_skill_prog_keiken', '利用なし', '利用なし', '00' );</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>222</v>
       </c>
@@ -5009,6 +5082,225 @@
       <c r="G206" s="2" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd_jksk_skill_prog_keiken', '利用あり', '利用あり', '01' );</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G207" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_car_now_han_ans01', '', '', '00' );</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G208" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_car_now_han_ans01', '販売職のスペシャリストとしてクルーで働きたい', '販売職のスペシャリストとしてクルーで働きたい', '01' );</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G209" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_car_now_han_ans01', 'キャリアアップを目指したい（AM、SSV、店長など）', 'キャリアアップを目指したい（AM、SSV、店長など）', '02' );</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G210" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_car_now_han_ans01', '現在の業務のままステップアップしたい', '現在の業務のままステップアップしたい', '03' );</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G211" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_car_now_han_ans01', 'その他のキャリアを目指したい', 'その他のキャリアを目指したい', '04' );</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G212" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '', '', '00' );</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G213" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '直ちにチャレンジさせたい', '直ちにチャレンジさせたい', '01' );</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G214" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '半年～1年以内にチャレンジさせたい', '半年～1年以内にチャレンジさせたい', '02' );</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G215" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '1～2年以内にチャレンジさせたい', '1～2年以内にチャレンジさせたい', '03' );</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G216" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '時期を問わず機会があればチャレンジさせたい', '時期を問わず機会があればチャレンジさせたい', '04' );</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G217" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PULLDOWN_MASTER VALUES ( 'cspd-jksk_bos_now_han_ans01', '現職でキャリアアップさせたい（現在の業務を続けさせたい）', '現職でキャリアアップさせたい（現在の業務を続けさせたい）', '05' );</v>
       </c>
     </row>
   </sheetData>
